--- a/data/calcs/save_calcs/s_val_mu_std.xlsx
+++ b/data/calcs/save_calcs/s_val_mu_std.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.56425482993505</v>
+        <v>6.15379541431027</v>
       </c>
       <c r="C2" t="n">
-        <v>2.108204145678089</v>
+        <v>4.741279635265116</v>
       </c>
       <c r="D2" t="n">
-        <v>8.98874848077336</v>
+        <v>15.76798937829914</v>
       </c>
       <c r="E2" t="n">
-        <v>4.75455559403137</v>
+        <v>5.17746422725236</v>
       </c>
       <c r="F2" t="n">
-        <v>1.659090616575823</v>
+        <v>2.572529496175026</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.512885315271583</v>
+        <v>6.189590430959694</v>
       </c>
       <c r="C3" t="n">
-        <v>2.102468571914409</v>
+        <v>4.850264342582621</v>
       </c>
       <c r="D3" t="n">
-        <v>8.937783843842663</v>
+        <v>16.25000532586648</v>
       </c>
       <c r="E3" t="n">
-        <v>4.73463377865685</v>
+        <v>5.870234830968017</v>
       </c>
       <c r="F3" t="n">
-        <v>1.672950230584222</v>
+        <v>3.413785027927179</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.528112419682373</v>
+        <v>6.048734245549538</v>
       </c>
       <c r="C4" t="n">
-        <v>2.04972054569657</v>
+        <v>4.530617401894165</v>
       </c>
       <c r="D4" t="n">
-        <v>8.860203570111924</v>
+        <v>15.21452692407937</v>
       </c>
       <c r="E4" t="n">
-        <v>4.740987492199672</v>
+        <v>5.53746021344578</v>
       </c>
       <c r="F4" t="n">
-        <v>1.651492389655144</v>
+        <v>2.802325628882126</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.475890387724311</v>
+        <v>6.201049113329182</v>
       </c>
       <c r="C5" t="n">
-        <v>2.082113142268866</v>
+        <v>5.514279000147912</v>
       </c>
       <c r="D5" t="n">
-        <v>8.872616081530039</v>
+        <v>17.56740865717554</v>
       </c>
       <c r="E5" t="n">
-        <v>4.692283884596391</v>
+        <v>6.032438885485072</v>
       </c>
       <c r="F5" t="n">
-        <v>1.664762248915349</v>
+        <v>3.477725596522879</v>
       </c>
     </row>
   </sheetData>

--- a/data/calcs/save_calcs/s_val_mu_std.xlsx
+++ b/data/calcs/save_calcs/s_val_mu_std.xlsx
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.189590430959694</v>
+        <v>6.15379541431027</v>
       </c>
       <c r="C3" t="n">
-        <v>4.850264342582621</v>
+        <v>4.781600522863389</v>
       </c>
       <c r="D3" t="n">
-        <v>16.25000532586648</v>
+        <v>15.82847070969655</v>
       </c>
       <c r="E3" t="n">
-        <v>5.870234830968017</v>
+        <v>5.233756746275581</v>
       </c>
       <c r="F3" t="n">
-        <v>3.413785027927179</v>
+        <v>2.734948622176059</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.048734245549538</v>
+        <v>6.189590430959694</v>
       </c>
       <c r="C4" t="n">
-        <v>4.530617401894165</v>
+        <v>6.869164417803328</v>
       </c>
       <c r="D4" t="n">
-        <v>15.21452692407937</v>
+        <v>21.3646577961281</v>
       </c>
       <c r="E4" t="n">
-        <v>5.53746021344578</v>
+        <v>6.147217845974947</v>
       </c>
       <c r="F4" t="n">
-        <v>2.802325628882126</v>
+        <v>3.857907858207838</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.201049113329182</v>
+        <v>6.048734245549538</v>
       </c>
       <c r="C5" t="n">
-        <v>5.514279000147912</v>
+        <v>4.606957832077882</v>
       </c>
       <c r="D5" t="n">
-        <v>17.56740865717554</v>
+        <v>15.32903756935495</v>
       </c>
       <c r="E5" t="n">
-        <v>6.032438885485072</v>
+        <v>5.528249501476352</v>
       </c>
       <c r="F5" t="n">
-        <v>3.477725596522879</v>
+        <v>2.784462463933415</v>
       </c>
     </row>
   </sheetData>
